--- a/data/matriz_peajes.xlsx
+++ b/data/matriz_peajes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fd171dda8de17894/Desktop/cerebro-patio/Cerebro/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="36" documentId="8_{66FE59BA-F155-4B51-98BF-90A0B1813F91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2A8D87F5-BD35-4CF7-8785-D5CD3943451B}"/>
+  <xr:revisionPtr revIDLastSave="38" documentId="8_{66FE59BA-F155-4B51-98BF-90A0B1813F91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{010E0BE1-8017-4A54-BCDE-B50834629D38}"/>
   <bookViews>
-    <workbookView xWindow="-19310" yWindow="2500" windowWidth="19420" windowHeight="10300" xr2:uid="{E1C0E200-E68B-48E1-A57D-C8BE3C53285E}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{E1C0E200-E68B-48E1-A57D-C8BE3C53285E}"/>
   </bookViews>
   <sheets>
     <sheet name="peajes" sheetId="1" r:id="rId1"/>
@@ -77,13 +77,13 @@
     <t>Temuco</t>
   </si>
   <si>
-    <t>Chiloé (Castro)</t>
-  </si>
-  <si>
     <t>La Serena</t>
   </si>
   <si>
     <t>Curanilahue</t>
+  </si>
+  <si>
+    <t>Chiloé</t>
   </si>
 </sst>
 </file>
@@ -947,7 +947,7 @@
   <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -990,13 +990,13 @@
         <v>12</v>
       </c>
       <c r="M1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>14</v>
-      </c>
-      <c r="O1" t="s">
-        <v>15</v>
       </c>
       <c r="P1" t="s">
         <v>7</v>
@@ -1554,7 +1554,7 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B13">
         <v>88622</v>
@@ -1604,7 +1604,7 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14">
         <v>30297</v>
@@ -1654,7 +1654,7 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15">
         <v>67443</v>
